--- a/plan/bug.xlsx
+++ b/plan/bug.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zoe\Documents\GitHub\save\plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\大概是实训\save\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{502F5162-A7DA-40AE-B053-8DC823C1730A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18458" windowHeight="10523"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18456" windowHeight="10524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="54">
   <si>
     <t>SAVE(项目名称)项目组第1次迭代BugList表</t>
   </si>
@@ -146,13 +147,81 @@
   </si>
   <si>
     <t>.pro文件中重新加载</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gif白边</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gif会出现白边</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>将图层不透明化</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈雨婷</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认窗口文字重叠</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认按钮和文字堆叠</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>将文字上移</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具放不进背包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具过大</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整道具大小</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始界面动画不连贯</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>制作动图是没有头尾一致</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>制作头尾连接</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡界面图标重叠</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡小图标重叠</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整间距</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -313,6 +382,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -333,20 +411,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规_Sheet1_3" xfId="1"/>
+    <cellStyle name="常规_Sheet1_3" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -618,35 +687,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1328125" customWidth="1"/>
-    <col min="8" max="8" width="9.86328125" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" customWidth="1"/>
+    <col min="4" max="4" width="33.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-    </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+    </row>
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -672,7 +741,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="3" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -688,17 +757,17 @@
       <c r="E3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="10">
         <v>43293</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="10">
         <v>43293</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="3" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -714,17 +783,17 @@
       <c r="E4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="10">
         <v>43292</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="10">
         <v>43292</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="3" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -740,207 +809,277 @@
       <c r="E5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="10">
         <v>43290</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="10">
         <v>43290</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="3" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="10">
         <v>43288</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="10">
         <v>43289</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="3" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="9">
         <v>43291</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="10">
         <v>43292</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="3" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="10">
         <v>43290</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="10">
         <v>43290</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="3" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="10">
         <v>43290</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="10">
         <v>43290</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" s="3" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>8</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="10">
         <v>43291</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="10">
         <v>43291</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" s="3" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="10">
+        <v>43285</v>
+      </c>
+      <c r="G11" s="10">
+        <v>43285</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="3" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>10</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="10">
+        <v>43287</v>
+      </c>
+      <c r="G12" s="10">
+        <v>43287</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="3" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="10">
+        <v>43290</v>
+      </c>
+      <c r="G13" s="10">
+        <v>43290</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="3" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>12</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="9">
+        <v>43291</v>
+      </c>
+      <c r="G14" s="10">
+        <v>43291</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="3" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>13</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="10">
+        <v>43292</v>
+      </c>
+      <c r="G15" s="9">
+        <v>43292</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="3" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -952,7 +1091,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" s="3" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>15</v>
       </c>
@@ -964,7 +1103,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" s="3" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -976,7 +1115,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" s="3" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>17</v>
       </c>
@@ -988,7 +1127,7 @@
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" s="3" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -1000,7 +1139,7 @@
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" s="3" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>19</v>
       </c>
@@ -1012,7 +1151,7 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:8" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" s="3" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>20</v>
       </c>
@@ -1024,37 +1163,37 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>21</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:8" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="10"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="11"/>
-    </row>
-    <row r="25" spans="1:8" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
+    <row r="24" spans="1:8" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="14"/>
+    </row>
+    <row r="25" spans="1:8" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="16"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="5">
